--- a/uploads/Canon_sales_report.xlsx
+++ b/uploads/Canon_sales_report.xlsx
@@ -503,17 +503,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1,135,850.28</t>
+          <t>625,910.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1,464,149.72</t>
+          <t>-1,974,089.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43.69%</t>
+          <t>24.07%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-81.00</t>
+          <t>-130.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>27.78%</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>407,394.95</t>
+          <t>232,450.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-792,605.05</t>
+          <t>-967,549.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>33.95%</t>
+          <t>19.37%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>168.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-70.00</t>
+          <t>-163.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>31.51%</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>606,495.02</t>
+          <t>319,917.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1,393,504.98</t>
+          <t>-1,680,082.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>30.32%</t>
+          <t>16.00%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -627,17 +627,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>146.00</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-82.00</t>
+          <t>-142.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>64.04%</t>
+          <t>37.72%</t>
         </is>
       </c>
     </row>
@@ -659,17 +659,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>323,791.00</t>
+          <t>235,262.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-976,209.00</t>
+          <t>-1,064,737.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24.91%</t>
+          <t>18.10%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>142.00</t>
+          <t>72.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-68.00</t>
+          <t>-138.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>67.62%</t>
+          <t>34.29%</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>486,700.22</t>
+          <t>253,032.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-913,299.78</t>
+          <t>-1,146,967.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>34.76%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>117.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-83.00</t>
+          <t>-136.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>58.50%</t>
+          <t>32.00%</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2,960,231.47</t>
+          <t>1,666,574.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5,539,768.53</t>
+          <t>-6,833,425.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>33.53%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>672.00</t>
+          <t>347.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-384.00</t>
+          <t>-709.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>63.15%</t>
+          <t>32.66%</t>
         </is>
       </c>
     </row>
